--- a/physical_properties/pKa/microstates/SM20_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM20_microstate_IDs_with_2D_depiction.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>SM20_microstate_IDs_with_2D_depiction.csv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Microstate List</t>
   </si>
   <si>
     <t>Molecule</t>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>canonical isomeric SMILES</t>
-  </si>
-  <si>
-    <t>SM20_micro001</t>
-  </si>
-  <si>
-    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)/C=C/3\C(=O)[N-]C(=[S+]3)[O-]</t>
-  </si>
-  <si>
-    <t>SM20_micro002</t>
-  </si>
-  <si>
-    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)/C=C/3\C(=[NH+]C(=[S+]3)[O-])[O-]</t>
   </si>
   <si>
     <t>SM20_micro003</t>
@@ -231,82 +219,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="tmp4.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6724650"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175163</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>3338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="tmp5.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9896475"/>
-          <a:ext cx="3175163" cy="3175163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -595,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,22 +550,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/physical_properties/pKa/microstates/SM20_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM20_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Microstate List</t>
   </si>
@@ -28,16 +28,25 @@
     <t>canonical isomeric SMILES</t>
   </si>
   <si>
+    <t>canonical SMILES</t>
+  </si>
+  <si>
     <t>SM20_micro003</t>
   </si>
   <si>
     <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)/C=C/3\C(=O)[NH+]=C(S3)[O-]</t>
   </si>
   <si>
+    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)C=C3C(=O)[NH+]=C(S3)[O-]</t>
+  </si>
+  <si>
     <t>SM20_micro004</t>
   </si>
   <si>
     <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)/C=C/3\C(=O)N=C(S3)[O-]</t>
+  </si>
+  <si>
+    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)C=C3C(=O)N=C(S3)[O-]</t>
   </si>
 </sst>
 </file>
@@ -516,14 +525,15 @@
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -533,21 +543,30 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="250.0" customHeight="1">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="250.0" customHeight="1">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/physical_properties/pKa/microstates/SM20_microstate_IDs_with_2D_depiction.xlsx
+++ b/physical_properties/pKa/microstates/SM20_microstate_IDs_with_2D_depiction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Microstate List</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)C=C3C(=O)N=C(S3)[O-]</t>
+  </si>
+  <si>
+    <t>SM20_micro005</t>
+  </si>
+  <si>
+    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)/C=C/3\C(=NC(=O)S3)O</t>
+  </si>
+  <si>
+    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)C=C3C(=NC(=O)S3)O</t>
+  </si>
+  <si>
+    <t>SM20_micro006</t>
+  </si>
+  <si>
+    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)/C=C/3\C(=O)N=C(S3)O</t>
+  </si>
+  <si>
+    <t>c1cc(cc(c1)OCc2ccc(cc2Cl)Cl)C=C3C(=O)N=C(S3)O</t>
   </si>
 </sst>
 </file>
@@ -219,6 +237,82 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3552825"/>
+          <a:ext cx="3175163" cy="3175163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175163</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="tmp4.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6724650"/>
+          <a:ext cx="3175163" cy="3175163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="tmp5.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9896475"/>
           <a:ext cx="3175163" cy="3175163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +663,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="250.0" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="250.0" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
